--- a/app/resources/canvas/stagiaire-canva.xlsx
+++ b/app/resources/canvas/stagiaire-canva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ABS-ISTA\app\resources\canvas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ABS-ISTA\app\resources\canvas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC2363-D998-46EE-AEB9-9B55EDE809C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C73F6-4ECD-4D73-BDCC-D9692FDA01F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>stagiaire_id</t>
+    <t>Nom</t>
   </si>
   <si>
-    <t>first_name</t>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Numero de telephone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Filiere</t>
   </si>
 </sst>
 </file>
@@ -86,11 +95,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B52D5E84-3135-4A23-9F58-151C7DA6CA0D}" name="Tableau1" displayName="Tableau1" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{B52D5E84-3135-4A23-9F58-151C7DA6CA0D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C5EE7A31-749F-48E5-ABCE-6DB61EA89003}" name="stagiaire_id"/>
-    <tableColumn id="2" xr3:uid="{C283FC8E-1F74-4298-88D9-3C355A7895A7}" name="first_name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B52D5E84-3135-4A23-9F58-151C7DA6CA0D}" name="Tableau1" displayName="Tableau1" ref="A1:E2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{B52D5E84-3135-4A23-9F58-151C7DA6CA0D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C5EE7A31-749F-48E5-ABCE-6DB61EA89003}" name="Prenom"/>
+    <tableColumn id="2" xr3:uid="{C283FC8E-1F74-4298-88D9-3C355A7895A7}" name="Nom"/>
+    <tableColumn id="3" xr3:uid="{24586F87-24B4-437D-88C6-8607AD59071D}" name="Email"/>
+    <tableColumn id="4" xr3:uid="{BFBA7DFE-1E9B-429F-BFB2-2A2A94112D43}" name="Numero de telephone"/>
+    <tableColumn id="5" xr3:uid="{F1340D97-6FFE-40F1-A88D-97ABD58ACBEA}" name="Filiere"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -359,23 +371,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/app/resources/canvas/stagiaire-canva.xlsx
+++ b/app/resources/canvas/stagiaire-canva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ABS-ISTA\app\resources\canvas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C73F6-4ECD-4D73-BDCC-D9692FDA01F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E17DEF-82D7-45A1-B74B-88F67609744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Filiere</t>
+    <t>Groupe</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
     <tableColumn id="2" xr3:uid="{C283FC8E-1F74-4298-88D9-3C355A7895A7}" name="Nom"/>
     <tableColumn id="3" xr3:uid="{24586F87-24B4-437D-88C6-8607AD59071D}" name="Email"/>
     <tableColumn id="4" xr3:uid="{BFBA7DFE-1E9B-429F-BFB2-2A2A94112D43}" name="Numero de telephone"/>
-    <tableColumn id="5" xr3:uid="{F1340D97-6FFE-40F1-A88D-97ABD58ACBEA}" name="Filiere"/>
+    <tableColumn id="5" xr3:uid="{F1340D97-6FFE-40F1-A88D-97ABD58ACBEA}" name="Groupe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -374,7 +374,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
